--- a/src/test/resources/TestData/TestCaseSettings.xlsx
+++ b/src/test/resources/TestData/TestCaseSettings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shiva\Downloads\calc\ZLatestJenkinsCode\src\test\resources\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shiva\OneDrive\Desktop\GitCalcJenkins\Pulsora_Calculator\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61D31DAC-5323-44A7-9E86-55BEFE8212FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1DAFEA6-1F92-4CB3-A8FF-3FA82C95D701}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="105" yWindow="30" windowWidth="23895" windowHeight="12750" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UITestCases" sheetId="1" r:id="rId1"/>
@@ -940,22 +940,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMH34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C17" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29:E34"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="23.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="24" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="110.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="131.33203125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="136.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.44140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.44140625" style="1" customWidth="1"/>
-    <col min="7" max="1022" width="8.6640625" style="1"/>
+    <col min="1" max="1" width="34.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="110.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="131.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="136.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" customWidth="1"/>
+    <col min="7" max="1022" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" ht="37.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -990,7 +990,7 @@
       <c r="T1" s="3"/>
       <c r="U1" s="3"/>
     </row>
-    <row r="2" spans="1:21" ht="21" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:21" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>7</v>
       </c>
@@ -1004,11 +1004,11 @@
         <v>24</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>66</v>
+        <v>6</v>
       </c>
       <c r="F2" s="10"/>
     </row>
-    <row r="3" spans="1:21" ht="21" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:21" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
         <v>7</v>
       </c>
@@ -1022,11 +1022,11 @@
         <v>25</v>
       </c>
       <c r="E3" s="21" t="s">
-        <v>66</v>
+        <v>6</v>
       </c>
       <c r="F3" s="10"/>
     </row>
-    <row r="4" spans="1:21" ht="21" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:21" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
         <v>7</v>
       </c>
@@ -1040,11 +1040,11 @@
         <v>26</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>66</v>
+        <v>6</v>
       </c>
       <c r="F4" s="10"/>
     </row>
-    <row r="5" spans="1:21" ht="21" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:21" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
         <v>7</v>
       </c>
@@ -1058,11 +1058,11 @@
         <v>69</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>66</v>
+        <v>6</v>
       </c>
       <c r="F5" s="10"/>
     </row>
-    <row r="6" spans="1:21" ht="21" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:21" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A6" s="15" t="s">
         <v>7</v>
       </c>
@@ -1076,11 +1076,11 @@
         <v>28</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>66</v>
+        <v>6</v>
       </c>
       <c r="F6" s="10"/>
     </row>
-    <row r="7" spans="1:21" ht="21" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:21" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="s">
         <v>7</v>
       </c>
@@ -1094,11 +1094,11 @@
         <v>28</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>66</v>
+        <v>6</v>
       </c>
       <c r="F7" s="10"/>
     </row>
-    <row r="8" spans="1:21" ht="21" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:21" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A8" s="15" t="s">
         <v>7</v>
       </c>
@@ -1112,14 +1112,14 @@
         <v>31</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>66</v>
+        <v>6</v>
       </c>
       <c r="F8" s="10"/>
       <c r="I8" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="21" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:21" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
         <v>7</v>
       </c>
@@ -1133,11 +1133,11 @@
         <v>33</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>66</v>
+        <v>6</v>
       </c>
       <c r="F9" s="10"/>
     </row>
-    <row r="10" spans="1:21" ht="21" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:21" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
         <v>7</v>
       </c>
@@ -1151,11 +1151,11 @@
         <v>33</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>66</v>
+        <v>6</v>
       </c>
       <c r="F10" s="10"/>
     </row>
-    <row r="11" spans="1:21" ht="21" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:21" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
         <v>7</v>
       </c>
@@ -1169,11 +1169,11 @@
         <v>82</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>66</v>
+        <v>6</v>
       </c>
       <c r="F11" s="10"/>
     </row>
-    <row r="12" spans="1:21" ht="21" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:21" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
         <v>7</v>
       </c>
@@ -1191,7 +1191,7 @@
       </c>
       <c r="F12" s="10"/>
     </row>
-    <row r="13" spans="1:21" ht="21" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:21" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
         <v>7</v>
       </c>
@@ -1205,11 +1205,11 @@
         <v>78</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>66</v>
+        <v>6</v>
       </c>
       <c r="F13" s="10"/>
     </row>
-    <row r="14" spans="1:21" ht="21" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:21" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
         <v>7</v>
       </c>
@@ -1223,11 +1223,11 @@
         <v>79</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>66</v>
+        <v>6</v>
       </c>
       <c r="F14" s="10"/>
     </row>
-    <row r="15" spans="1:21" ht="21" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:21" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
         <v>7</v>
       </c>
@@ -1241,11 +1241,11 @@
         <v>35</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>66</v>
+        <v>6</v>
       </c>
       <c r="F15" s="10"/>
     </row>
-    <row r="16" spans="1:21" ht="21" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:21" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A16" s="18" t="s">
         <v>7</v>
       </c>
@@ -1259,11 +1259,11 @@
         <v>88</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>66</v>
+        <v>6</v>
       </c>
       <c r="F16" s="10"/>
     </row>
-    <row r="17" spans="1:6" ht="21" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:6" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
         <v>7</v>
       </c>
@@ -1277,11 +1277,11 @@
         <v>85</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>66</v>
+        <v>6</v>
       </c>
       <c r="F17" s="10"/>
     </row>
-    <row r="18" spans="1:6" ht="21" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:6" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A18" s="15" t="s">
         <v>7</v>
       </c>
@@ -1295,11 +1295,11 @@
         <v>39</v>
       </c>
       <c r="E18" s="21" t="s">
-        <v>66</v>
+        <v>6</v>
       </c>
       <c r="F18" s="10"/>
     </row>
-    <row r="19" spans="1:6" ht="21" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:6" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A19" s="15" t="s">
         <v>7</v>
       </c>
@@ -1313,11 +1313,11 @@
         <v>93</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>66</v>
+        <v>6</v>
       </c>
       <c r="F19" s="7"/>
     </row>
-    <row r="20" spans="1:6" ht="21" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:6" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A20" s="15" t="s">
         <v>7</v>
       </c>
@@ -1331,11 +1331,11 @@
         <v>44</v>
       </c>
       <c r="E20" s="21" t="s">
-        <v>66</v>
+        <v>6</v>
       </c>
       <c r="F20" s="10"/>
     </row>
-    <row r="21" spans="1:6" ht="21" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:6" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A21" s="15" t="s">
         <v>7</v>
       </c>
@@ -1349,11 +1349,11 @@
         <v>42</v>
       </c>
       <c r="E21" s="21" t="s">
-        <v>66</v>
+        <v>6</v>
       </c>
       <c r="F21" s="10"/>
     </row>
-    <row r="22" spans="1:6" ht="21" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:6" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A22" s="15" t="s">
         <v>7</v>
       </c>
@@ -1367,11 +1367,11 @@
         <v>37</v>
       </c>
       <c r="E22" s="21" t="s">
-        <v>66</v>
+        <v>6</v>
       </c>
       <c r="F22" s="10"/>
     </row>
-    <row r="23" spans="1:6" ht="21" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:6" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A23" s="15" t="s">
         <v>7</v>
       </c>
@@ -1385,11 +1385,11 @@
         <v>9</v>
       </c>
       <c r="E23" s="21" t="s">
-        <v>66</v>
+        <v>6</v>
       </c>
       <c r="F23" s="10"/>
     </row>
-    <row r="24" spans="1:6" ht="21" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:6" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A24" s="15" t="s">
         <v>7</v>
       </c>
@@ -1403,11 +1403,11 @@
         <v>9</v>
       </c>
       <c r="E24" s="21" t="s">
-        <v>66</v>
+        <v>6</v>
       </c>
       <c r="F24" s="10"/>
     </row>
-    <row r="25" spans="1:6" ht="21" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:6" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A25" s="15" t="s">
         <v>7</v>
       </c>
@@ -1421,11 +1421,11 @@
         <v>49</v>
       </c>
       <c r="E25" s="21" t="s">
-        <v>66</v>
+        <v>6</v>
       </c>
       <c r="F25" s="10"/>
     </row>
-    <row r="26" spans="1:6" ht="21" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:6" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A26" s="15" t="s">
         <v>7</v>
       </c>
@@ -1439,11 +1439,11 @@
         <v>50</v>
       </c>
       <c r="E26" s="21" t="s">
-        <v>66</v>
+        <v>6</v>
       </c>
       <c r="F26" s="10"/>
     </row>
-    <row r="27" spans="1:6" ht="21" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:6" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A27" s="15" t="s">
         <v>7</v>
       </c>
@@ -1457,11 +1457,11 @@
         <v>51</v>
       </c>
       <c r="E27" s="21" t="s">
-        <v>66</v>
+        <v>6</v>
       </c>
       <c r="F27" s="10"/>
     </row>
-    <row r="28" spans="1:6" ht="21" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:6" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A28" s="15" t="s">
         <v>7</v>
       </c>
@@ -1475,11 +1475,11 @@
         <v>10</v>
       </c>
       <c r="E28" s="21" t="s">
-        <v>66</v>
+        <v>6</v>
       </c>
       <c r="F28" s="10"/>
     </row>
-    <row r="29" spans="1:6" ht="21" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:6" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A29" s="13" t="s">
         <v>53</v>
       </c>
@@ -1497,7 +1497,7 @@
       </c>
       <c r="F29" s="10"/>
     </row>
-    <row r="30" spans="1:6" ht="21" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:6" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A30" s="13" t="s">
         <v>53</v>
       </c>
@@ -1515,7 +1515,7 @@
       </c>
       <c r="F30" s="7"/>
     </row>
-    <row r="31" spans="1:6" ht="21" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:6" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A31" s="13" t="s">
         <v>53</v>
       </c>
@@ -1533,7 +1533,7 @@
       </c>
       <c r="F31" s="7"/>
     </row>
-    <row r="32" spans="1:6" ht="21" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:6" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A32" s="13" t="s">
         <v>53</v>
       </c>
@@ -1551,7 +1551,7 @@
       </c>
       <c r="F32" s="7"/>
     </row>
-    <row r="33" spans="1:6" ht="21" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:6" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A33" s="13" t="s">
         <v>53</v>
       </c>
@@ -1569,7 +1569,7 @@
       </c>
       <c r="F33" s="7"/>
     </row>
-    <row r="34" spans="1:6" ht="21" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:6" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A34" s="13" t="s">
         <v>53</v>
       </c>

--- a/src/test/resources/TestData/TestCaseSettings.xlsx
+++ b/src/test/resources/TestData/TestCaseSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priya\OneDrive\Desktop\FinalJenkinsCalc\Pulsora_Calculator\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D0155CB-A49E-4883-A445-F61C85F59058}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50614329-E602-4B26-8F9A-CE5DFF572634}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="93">
   <si>
     <t>Module name</t>
   </si>
@@ -310,9 +310,6 @@
   </si>
   <si>
     <t>User Validate creating Data source by uploading a file</t>
-  </si>
-  <si>
-    <t>Yes</t>
   </si>
 </sst>
 </file>
@@ -482,7 +479,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -546,6 +543,9 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -904,8 +904,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMH34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="23.4"/>
@@ -1097,7 +1097,7 @@
         <v>42</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="F9" s="12"/>
     </row>
@@ -1132,7 +1132,7 @@
       <c r="D11" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="22" t="s">
         <v>82</v>
       </c>
       <c r="F11" s="12"/>
@@ -1168,7 +1168,7 @@
       <c r="D13" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="22" t="s">
         <v>82</v>
       </c>
       <c r="F13" s="12"/>

--- a/src/test/resources/TestData/TestCaseSettings.xlsx
+++ b/src/test/resources/TestData/TestCaseSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priya\OneDrive\Desktop\FinalJenkinsCalc\Pulsora_Calculator\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12DA92C8-431B-4257-991C-B6D467B81D24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B6DB865-EC6B-4D89-80F5-28679DB18687}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -319,7 +319,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -410,6 +410,12 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF2A00FF"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -482,7 +488,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -545,6 +551,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -905,7 +914,7 @@
   <dimension ref="A1:AMH34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="23.4"/>
@@ -968,7 +977,7 @@
         <v>9</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="F2" s="12"/>
     </row>
@@ -986,7 +995,7 @@
         <v>11</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="F3" s="12"/>
     </row>
@@ -1004,7 +1013,7 @@
         <v>13</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="F4" s="12"/>
     </row>
@@ -1022,7 +1031,7 @@
         <v>19</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="F5" s="12"/>
     </row>
@@ -1040,7 +1049,7 @@
         <v>19</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="F6" s="12"/>
     </row>
@@ -1058,7 +1067,7 @@
         <v>23</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="F7" s="12"/>
       <c r="I7" s="1" t="s">
@@ -1079,7 +1088,7 @@
         <v>26</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="F8" s="12"/>
     </row>
@@ -1097,7 +1106,7 @@
         <v>42</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="F9" s="12"/>
     </row>
@@ -1115,7 +1124,7 @@
         <v>51</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="F10" s="12"/>
     </row>
@@ -1133,7 +1142,7 @@
         <v>57</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="F11" s="12"/>
     </row>
@@ -1151,7 +1160,7 @@
         <v>60</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="F12" s="12"/>
     </row>
@@ -1169,7 +1178,7 @@
         <v>63</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="F13" s="12"/>
     </row>
@@ -1187,7 +1196,7 @@
         <v>66</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="F14" s="12"/>
     </row>
@@ -1205,7 +1214,7 @@
         <v>71</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="F15" s="12"/>
     </row>
@@ -1223,7 +1232,7 @@
         <v>73</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="F16" s="12"/>
     </row>
@@ -1255,11 +1264,11 @@
       <c r="C18" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="22" t="s">
         <v>77</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="F18" s="12"/>
     </row>
@@ -1277,7 +1286,7 @@
         <v>16</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="F19" s="12"/>
     </row>
@@ -1295,7 +1304,7 @@
         <v>26</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="F20" s="12"/>
     </row>
@@ -1313,7 +1322,7 @@
         <v>31</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="F21" s="12"/>
     </row>
@@ -1331,7 +1340,7 @@
         <v>34</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="F22" s="12"/>
     </row>
@@ -1349,7 +1358,7 @@
         <v>37</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="F23" s="12"/>
     </row>
@@ -1367,7 +1376,7 @@
         <v>39</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="F24" s="12"/>
     </row>
@@ -1385,7 +1394,7 @@
         <v>45</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="F25" s="12"/>
     </row>
@@ -1403,7 +1412,7 @@
         <v>48</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="F26" s="12"/>
     </row>
@@ -1421,7 +1430,7 @@
         <v>54</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="F27" s="17"/>
     </row>
@@ -1439,7 +1448,7 @@
         <v>66</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="F28" s="12"/>
     </row>
